--- a/data/pca/factorExposure/factorExposure_2009-10-12.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-10-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.009679021014989993</v>
+        <v>0.01692208264902793</v>
       </c>
       <c r="C2">
-        <v>-0.002131571941298788</v>
+        <v>-0.0008992061438833939</v>
       </c>
       <c r="D2">
-        <v>0.007981103934157602</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.008825682999935268</v>
+      </c>
+      <c r="E2">
+        <v>-0.001724322078921349</v>
+      </c>
+      <c r="F2">
+        <v>0.01216802505180179</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +751,36 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1070854126400551</v>
+        <v>0.09359837138055488</v>
       </c>
       <c r="C4">
-        <v>-0.01435197526383672</v>
+        <v>-0.01437227321105461</v>
       </c>
       <c r="D4">
-        <v>0.06019773036796063</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08404123284211405</v>
+      </c>
+      <c r="E4">
+        <v>-0.02880023028453484</v>
+      </c>
+      <c r="F4">
+        <v>-0.03192808287308162</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,192 +791,276 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>0.142312444766155</v>
+        <v>0.1587007691691111</v>
       </c>
       <c r="C6">
-        <v>-0.01955884917960116</v>
+        <v>-0.02615487933076659</v>
       </c>
       <c r="D6">
-        <v>-0.02497451615312351</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02295673559631713</v>
+      </c>
+      <c r="E6">
+        <v>-0.01019355377881413</v>
+      </c>
+      <c r="F6">
+        <v>-0.04450391894690515</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07307581723540414</v>
+        <v>0.06345638301306622</v>
       </c>
       <c r="C7">
-        <v>0.001258188085732355</v>
+        <v>0.001756877099640055</v>
       </c>
       <c r="D7">
-        <v>0.03420353158063129</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05317272647211013</v>
+      </c>
+      <c r="E7">
+        <v>-0.01199459451748891</v>
+      </c>
+      <c r="F7">
+        <v>-0.04784028743187425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.06164626926805926</v>
+        <v>0.05717207283578207</v>
       </c>
       <c r="C8">
-        <v>0.01318181565616956</v>
+        <v>0.01352148365543289</v>
       </c>
       <c r="D8">
-        <v>0.01119904241176094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03271777120763877</v>
+      </c>
+      <c r="E8">
+        <v>-0.01794392336050952</v>
+      </c>
+      <c r="F8">
+        <v>0.02745028107070284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.08154486405518387</v>
+        <v>0.0707882535502182</v>
       </c>
       <c r="C9">
-        <v>-0.0126474308861507</v>
+        <v>-0.01019682138609867</v>
       </c>
       <c r="D9">
-        <v>0.06470600051374222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08666171067800692</v>
+      </c>
+      <c r="E9">
+        <v>-0.02359096252645886</v>
+      </c>
+      <c r="F9">
+        <v>-0.04769613113500526</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>0.07529531619890331</v>
+        <v>0.09287711375968878</v>
       </c>
       <c r="C10">
-        <v>-0.007691311484911733</v>
+        <v>-0.02111686199134769</v>
       </c>
       <c r="D10">
-        <v>-0.1541827331898686</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1657828385585852</v>
+      </c>
+      <c r="E10">
+        <v>0.03305287612027562</v>
+      </c>
+      <c r="F10">
+        <v>0.05524874400611491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.0932472677350181</v>
+        <v>0.08786444223062802</v>
       </c>
       <c r="C11">
-        <v>-0.01220483050358673</v>
+        <v>-0.01007971089680637</v>
       </c>
       <c r="D11">
-        <v>0.0919708364266109</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.117153306588604</v>
+      </c>
+      <c r="E11">
+        <v>-0.04647099213403545</v>
+      </c>
+      <c r="F11">
+        <v>-0.02303957835034214</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.1013771001875464</v>
+        <v>0.09192280772952986</v>
       </c>
       <c r="C12">
-        <v>-0.01038598912936754</v>
+        <v>-0.007472024559849352</v>
       </c>
       <c r="D12">
-        <v>0.0937212866038236</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.13207206377142</v>
+      </c>
+      <c r="E12">
+        <v>-0.04684705217549676</v>
+      </c>
+      <c r="F12">
+        <v>-0.02890369697996271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04128566749912089</v>
+        <v>0.04178088354578387</v>
       </c>
       <c r="C13">
-        <v>-0.004089759919203121</v>
+        <v>-0.002456969662260526</v>
       </c>
       <c r="D13">
-        <v>0.03846819348114026</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05351076253775553</v>
+      </c>
+      <c r="E13">
+        <v>0.004615568512635683</v>
+      </c>
+      <c r="F13">
+        <v>-0.0005890252327699069</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>0.02313085820741052</v>
+        <v>0.02409024256697735</v>
       </c>
       <c r="C14">
-        <v>-0.01448892897741394</v>
+        <v>-0.01380334186781562</v>
       </c>
       <c r="D14">
-        <v>0.02339480142418614</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03261109973451932</v>
+      </c>
+      <c r="E14">
+        <v>-0.01877597078345253</v>
+      </c>
+      <c r="F14">
+        <v>-0.01294612104325704</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>0.03740669659143722</v>
+        <v>0.03264377927429964</v>
       </c>
       <c r="C15">
-        <v>-0.005725625891992675</v>
+        <v>-0.004530991242774041</v>
       </c>
       <c r="D15">
-        <v>0.02141563809402986</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04476405367434382</v>
+      </c>
+      <c r="E15">
+        <v>-0.00593008849888283</v>
+      </c>
+      <c r="F15">
+        <v>-0.02439609298247791</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0790207719688206</v>
+        <v>0.07414279485708825</v>
       </c>
       <c r="C16">
-        <v>-0.00457444938005438</v>
+        <v>-0.0007295914000937371</v>
       </c>
       <c r="D16">
-        <v>0.0903611269427493</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1277388396405644</v>
+      </c>
+      <c r="E16">
+        <v>-0.06133538219836844</v>
+      </c>
+      <c r="F16">
+        <v>-0.02700950983098483</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>-0.0007086716475377405</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>0.0002000288712123523</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.0009253192854039961</v>
+      </c>
+      <c r="E17">
+        <v>-0.0006043374083228774</v>
+      </c>
+      <c r="F17">
+        <v>0.0008488416785331946</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.003491793728170776</v>
+        <v>0.03587994642364926</v>
       </c>
       <c r="C18">
-        <v>0.0002921301854376799</v>
+        <v>0.003102135881448396</v>
       </c>
       <c r="D18">
-        <v>0.001298458161016022</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01582539426473134</v>
+      </c>
+      <c r="E18">
+        <v>0.009482821906224535</v>
+      </c>
+      <c r="F18">
+        <v>0.008670124492721577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>0.06259790733512688</v>
+        <v>0.06148625968627987</v>
       </c>
       <c r="C20">
-        <v>-0.0037168443792616</v>
+        <v>0.0001359038648854539</v>
       </c>
       <c r="D20">
-        <v>0.03782312927896398</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07793853506879608</v>
+      </c>
+      <c r="E20">
+        <v>-0.05664071350642181</v>
+      </c>
+      <c r="F20">
+        <v>-0.02491798101057697</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>0.04467948714950613</v>
+        <v>0.04065933241957084</v>
       </c>
       <c r="C21">
-        <v>-0.008263407228559255</v>
+        <v>-0.006328935078753444</v>
       </c>
       <c r="D21">
-        <v>0.01080075414965092</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03766532716706657</v>
+      </c>
+      <c r="E21">
+        <v>0.001994726919870295</v>
+      </c>
+      <c r="F21">
+        <v>0.02539549007468807</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>0.02845929707970592</v>
+        <v>0.04313898526848103</v>
       </c>
       <c r="C22">
-        <v>5.247826737917612e-05</v>
+        <v>-0.0003895035676623042</v>
       </c>
       <c r="D22">
-        <v>-0.02383922710553506</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00657117337352628</v>
+      </c>
+      <c r="E22">
+        <v>-0.03456267453088976</v>
+      </c>
+      <c r="F22">
+        <v>0.03726893820880765</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>0.02841103040290764</v>
+        <v>0.04311486333367524</v>
       </c>
       <c r="C23">
-        <v>5.822611797882459e-05</v>
+        <v>-0.0003811472041372111</v>
       </c>
       <c r="D23">
-        <v>-0.02383329717732593</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.006586520121184682</v>
+      </c>
+      <c r="E23">
+        <v>-0.03474534533759947</v>
+      </c>
+      <c r="F23">
+        <v>0.03723242935364944</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>0.0852065558970152</v>
+        <v>0.07976656595921247</v>
       </c>
       <c r="C24">
-        <v>-0.004291821735338226</v>
+        <v>-0.001343099577304457</v>
       </c>
       <c r="D24">
-        <v>0.1011427853732462</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1216303810146142</v>
+      </c>
+      <c r="E24">
+        <v>-0.04931218986393755</v>
+      </c>
+      <c r="F24">
+        <v>-0.02753016217972063</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>0.09346971657698612</v>
+        <v>0.08517871558592341</v>
       </c>
       <c r="C25">
-        <v>-0.006158614918921849</v>
+        <v>-0.004150213076105986</v>
       </c>
       <c r="D25">
-        <v>0.09027382050125135</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1094627143839481</v>
+      </c>
+      <c r="E25">
+        <v>-0.03263463685621</v>
+      </c>
+      <c r="F25">
+        <v>-0.02756394182575189</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>0.05917199270284589</v>
+        <v>0.05861063441101438</v>
       </c>
       <c r="C26">
-        <v>-0.01596973966254304</v>
+        <v>-0.01420787895077802</v>
       </c>
       <c r="D26">
-        <v>0.009626436897628344</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04104315782599835</v>
+      </c>
+      <c r="E26">
+        <v>-0.02847871237901525</v>
+      </c>
+      <c r="F26">
+        <v>0.006316292304467077</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,206 +1231,296 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1341792697911936</v>
+        <v>0.1425678907863439</v>
       </c>
       <c r="C28">
-        <v>-0.001106899763624543</v>
+        <v>-0.02209566324888111</v>
       </c>
       <c r="D28">
-        <v>-0.2675862207936872</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2612662908203147</v>
+      </c>
+      <c r="E28">
+        <v>0.06752988417764026</v>
+      </c>
+      <c r="F28">
+        <v>-0.008414000105146292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>0.02431012563235282</v>
+        <v>0.02842723703553536</v>
       </c>
       <c r="C29">
-        <v>-0.009149986342683436</v>
+        <v>-0.008618773612058669</v>
       </c>
       <c r="D29">
-        <v>0.01909588497594664</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03094998068247125</v>
+      </c>
+      <c r="E29">
+        <v>-0.01376701494369027</v>
+      </c>
+      <c r="F29">
+        <v>0.01340217207061622</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08889745545183897</v>
+        <v>0.05931630960525892</v>
       </c>
       <c r="C30">
-        <v>-0.002424767164025472</v>
+        <v>-0.002475553441977855</v>
       </c>
       <c r="D30">
-        <v>0.06948687366177449</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08975104215064066</v>
+      </c>
+      <c r="E30">
+        <v>-0.01613045062456718</v>
+      </c>
+      <c r="F30">
+        <v>-0.07875527782207709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>0.04395785005321565</v>
+        <v>0.05077280819603738</v>
       </c>
       <c r="C31">
-        <v>-0.01493722565192226</v>
+        <v>-0.01527276674553371</v>
       </c>
       <c r="D31">
-        <v>0.0167571083963442</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02490819544011859</v>
+      </c>
+      <c r="E31">
+        <v>-0.02844552675075982</v>
+      </c>
+      <c r="F31">
+        <v>0.001049713323873976</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05288459517630955</v>
+        <v>0.05124349904719606</v>
       </c>
       <c r="C32">
-        <v>0.001100651196865123</v>
+        <v>0.001899437361830868</v>
       </c>
       <c r="D32">
-        <v>0.01847122943973425</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03528863228335376</v>
+      </c>
+      <c r="E32">
+        <v>-0.03328033698686441</v>
+      </c>
+      <c r="F32">
+        <v>-0.003679081187911963</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09789909007264813</v>
+        <v>0.08933948240664739</v>
       </c>
       <c r="C33">
-        <v>-0.008025699362415187</v>
+        <v>-0.006583657807997598</v>
       </c>
       <c r="D33">
-        <v>0.06692312949019501</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.100909644860313</v>
+      </c>
+      <c r="E33">
+        <v>-0.04377647724121717</v>
+      </c>
+      <c r="F33">
+        <v>-0.03759489376902282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>0.08104820972802175</v>
+        <v>0.06765807671551889</v>
       </c>
       <c r="C34">
-        <v>-0.0108645870133976</v>
+        <v>-0.009832249396517806</v>
       </c>
       <c r="D34">
-        <v>0.08982151002422163</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1094739529114085</v>
+      </c>
+      <c r="E34">
+        <v>-0.03484675983534417</v>
+      </c>
+      <c r="F34">
+        <v>-0.03369950575422961</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02657768009980036</v>
+        <v>0.02478458588739236</v>
       </c>
       <c r="C35">
-        <v>-0.0007776272241632302</v>
+        <v>-0.002441352876344569</v>
       </c>
       <c r="D35">
-        <v>0.002423061926185142</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0111162534129415</v>
+      </c>
+      <c r="E35">
+        <v>-0.01170484785585015</v>
+      </c>
+      <c r="F35">
+        <v>-0.0007056470134133941</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>0.01698810493377427</v>
+        <v>0.027628323905359</v>
       </c>
       <c r="C36">
-        <v>-0.008983660485569764</v>
+        <v>-0.006785757764651382</v>
       </c>
       <c r="D36">
-        <v>0.03069344333605417</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03990477884415791</v>
+      </c>
+      <c r="E36">
+        <v>-0.01665480098204742</v>
+      </c>
+      <c r="F36">
+        <v>-0.0152178908467951</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>-0.001024154911411551</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>0.0006417862813706264</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002332968940340287</v>
+      </c>
+      <c r="E37">
+        <v>0.001097636342965936</v>
+      </c>
+      <c r="F37">
+        <v>-0.001031932328578023</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.0001294291121678951</v>
+        <v>3.25679349068503e-05</v>
       </c>
       <c r="C38">
-        <v>2.10435756799547e-06</v>
+        <v>7.405360766272553e-05</v>
       </c>
       <c r="D38">
-        <v>0.001508372066790052</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.0008580565747765112</v>
+      </c>
+      <c r="E38">
+        <v>0.0001236614850298745</v>
+      </c>
+      <c r="F38">
+        <v>-0.0004244095622140579</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>0.1259159994000097</v>
+        <v>0.1042162754828128</v>
       </c>
       <c r="C39">
-        <v>-0.01738815716323709</v>
+        <v>-0.01526974457263916</v>
       </c>
       <c r="D39">
-        <v>0.1366273596407167</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1550833887372432</v>
+      </c>
+      <c r="E39">
+        <v>-0.06030490575756473</v>
+      </c>
+      <c r="F39">
+        <v>-0.02977569249324917</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>0.03153625185830883</v>
+        <v>0.04124596335321978</v>
       </c>
       <c r="C40">
-        <v>-0.007580675449545074</v>
+        <v>-0.007010401492490125</v>
       </c>
       <c r="D40">
-        <v>-0.01599427824884608</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03040343846098378</v>
+      </c>
+      <c r="E40">
+        <v>-0.002228680439904997</v>
+      </c>
+      <c r="F40">
+        <v>0.01611203525988626</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>0.02439302814760341</v>
+        <v>0.02833022334936774</v>
       </c>
       <c r="C41">
-        <v>-0.006287318909104275</v>
+        <v>-0.006955606929763451</v>
       </c>
       <c r="D41">
-        <v>0.0005010763696273278</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0102883888452042</v>
+      </c>
+      <c r="E41">
+        <v>-0.01210911460135101</v>
+      </c>
+      <c r="F41">
+        <v>0.005932195908673013</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>0.03132799086155814</v>
+        <v>0.04088405584373739</v>
       </c>
       <c r="C43">
-        <v>-0.007892404870152738</v>
+        <v>-0.007019020914670817</v>
       </c>
       <c r="D43">
-        <v>0.0082403766440012</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01889508855913007</v>
+      </c>
+      <c r="E43">
+        <v>-0.02540578044745785</v>
+      </c>
+      <c r="F43">
+        <v>0.0126409962525545</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>0.1010401230936016</v>
+        <v>0.07929253965996823</v>
       </c>
       <c r="C44">
-        <v>-0.01992278631672774</v>
+        <v>-0.01905563849241775</v>
       </c>
       <c r="D44">
-        <v>0.07040211959826644</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09791205228958834</v>
+      </c>
+      <c r="E44">
+        <v>-0.06235614105788816</v>
+      </c>
+      <c r="F44">
+        <v>-0.1544941573282205</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>0.01331857312839635</v>
+        <v>0.02341483012344324</v>
       </c>
       <c r="C46">
-        <v>-0.004106518832726187</v>
+        <v>-0.003320671813787177</v>
       </c>
       <c r="D46">
-        <v>-0.001897400462768085</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.01260697778479368</v>
+      </c>
+      <c r="E46">
+        <v>-0.02613630163340776</v>
+      </c>
+      <c r="F46">
+        <v>0.006462902995289488</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>0.0397527746087575</v>
+        <v>0.05223215104969731</v>
       </c>
       <c r="C47">
-        <v>-0.003208814027790523</v>
+        <v>-0.003316080417891046</v>
       </c>
       <c r="D47">
-        <v>-0.01075896979490916</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01408980835780255</v>
+      </c>
+      <c r="E47">
+        <v>-0.02354044961726844</v>
+      </c>
+      <c r="F47">
+        <v>0.03194223055109757</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04954114950656929</v>
+        <v>0.05029079767407836</v>
       </c>
       <c r="C48">
-        <v>-0.003123014467379062</v>
+        <v>-0.002035351629232174</v>
       </c>
       <c r="D48">
-        <v>0.03379778796795805</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05043588858066215</v>
+      </c>
+      <c r="E48">
+        <v>0.004721104604269142</v>
+      </c>
+      <c r="F48">
+        <v>-0.01010329658823434</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2035985034588983</v>
+        <v>0.2005285667115753</v>
       </c>
       <c r="C49">
-        <v>-0.008400072306016941</v>
+        <v>-0.01868239759046807</v>
       </c>
       <c r="D49">
-        <v>0.01324377189712499</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.005594891374814952</v>
+      </c>
+      <c r="E49">
+        <v>-0.03192913196732308</v>
+      </c>
+      <c r="F49">
+        <v>-0.03706353023849868</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>0.04539622306767475</v>
+        <v>0.05115505803781119</v>
       </c>
       <c r="C50">
-        <v>-0.01060402798519496</v>
+        <v>-0.01102847896321152</v>
       </c>
       <c r="D50">
-        <v>0.01355721198757412</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02441430451143468</v>
+      </c>
+      <c r="E50">
+        <v>-0.0298863938941201</v>
+      </c>
+      <c r="F50">
+        <v>-0.009984860704107652</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>0.1612490195926752</v>
+        <v>0.1473390534395862</v>
       </c>
       <c r="C52">
-        <v>-0.008690226460418395</v>
+        <v>-0.01670888245720791</v>
       </c>
       <c r="D52">
-        <v>0.05027939409597582</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.0431008282059965</v>
+      </c>
+      <c r="E52">
+        <v>-0.01961034625818597</v>
+      </c>
+      <c r="F52">
+        <v>-0.04344084725122039</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1723752273151431</v>
+        <v>0.1712149086394361</v>
       </c>
       <c r="C53">
-        <v>-0.008041238620898309</v>
+        <v>-0.01938350048312525</v>
       </c>
       <c r="D53">
-        <v>0.02053322693623325</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005634225950815402</v>
+      </c>
+      <c r="E53">
+        <v>-0.02864011084792522</v>
+      </c>
+      <c r="F53">
+        <v>-0.07379732667323065</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>0.02153199062639411</v>
+        <v>0.02099445024427668</v>
       </c>
       <c r="C54">
-        <v>-0.01108254758781701</v>
+        <v>-0.01132446467278889</v>
       </c>
       <c r="D54">
-        <v>0.0219378548120162</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03399849645037907</v>
+      </c>
+      <c r="E54">
+        <v>-0.0214986175547027</v>
+      </c>
+      <c r="F54">
+        <v>0.005434339084014053</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>0.1131613360413141</v>
+        <v>0.1141050726655043</v>
       </c>
       <c r="C55">
-        <v>-0.009702163831583394</v>
+        <v>-0.01712990718035972</v>
       </c>
       <c r="D55">
-        <v>0.0047671116360512</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.008079252326414894</v>
+      </c>
+      <c r="E55">
+        <v>-0.02372461092162396</v>
+      </c>
+      <c r="F55">
+        <v>-0.04743118588638144</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1761505672332258</v>
+        <v>0.176778781083383</v>
       </c>
       <c r="C56">
-        <v>-0.006455603483495878</v>
+        <v>-0.01729284499786186</v>
       </c>
       <c r="D56">
-        <v>-0.003017452013974169</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.00118358593937874</v>
+      </c>
+      <c r="E56">
+        <v>-0.03339560656277576</v>
+      </c>
+      <c r="F56">
+        <v>-0.05208171351279588</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>0.02993294244602519</v>
+        <v>0.04471771599237351</v>
       </c>
       <c r="C58">
-        <v>-0.006627764835492263</v>
+        <v>0.0005432457410961044</v>
       </c>
       <c r="D58">
-        <v>0.05486691067015712</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07141912313467225</v>
+      </c>
+      <c r="E58">
+        <v>-0.03152553030693654</v>
+      </c>
+      <c r="F58">
+        <v>0.03838146664113631</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>0.1590712435759476</v>
+        <v>0.1678723399986412</v>
       </c>
       <c r="C59">
-        <v>-0.0006757848772290301</v>
+        <v>-0.02212897575407119</v>
       </c>
       <c r="D59">
-        <v>-0.2305882493472788</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2169764513313835</v>
+      </c>
+      <c r="E59">
+        <v>0.04621733737856752</v>
+      </c>
+      <c r="F59">
+        <v>0.03558317313371256</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2496996098393467</v>
+        <v>0.2317737169388389</v>
       </c>
       <c r="C60">
-        <v>0.01547728147697389</v>
+        <v>0.002667692482350078</v>
       </c>
       <c r="D60">
-        <v>0.05957603287484404</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04221394679499327</v>
+      </c>
+      <c r="E60">
+        <v>-0.009918031172683205</v>
+      </c>
+      <c r="F60">
+        <v>0.005228725281561453</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>0.1002763206531683</v>
+        <v>0.08021632570604009</v>
       </c>
       <c r="C61">
-        <v>-0.01177815479579343</v>
+        <v>-0.01103215629749642</v>
       </c>
       <c r="D61">
-        <v>0.0925445708423793</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1179082963134211</v>
+      </c>
+      <c r="E61">
+        <v>-0.03981602814535924</v>
+      </c>
+      <c r="F61">
+        <v>-0.0129177729297345</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1742243256501975</v>
+        <v>0.1696930942087962</v>
       </c>
       <c r="C62">
-        <v>-0.01034836498978644</v>
+        <v>-0.02031315115471029</v>
       </c>
       <c r="D62">
-        <v>-0.001766306376334034</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.006377468451078763</v>
+      </c>
+      <c r="E62">
+        <v>-0.03382713783287836</v>
+      </c>
+      <c r="F62">
+        <v>-0.03600465992845266</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04855410422632588</v>
+        <v>0.04568275725651536</v>
       </c>
       <c r="C63">
-        <v>-0.00371782069721768</v>
+        <v>-0.00165582343309349</v>
       </c>
       <c r="D63">
-        <v>0.03603164877358347</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.05847208889734049</v>
+      </c>
+      <c r="E63">
+        <v>-0.02292201265075571</v>
+      </c>
+      <c r="F63">
+        <v>-0.003038549636663763</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>0.1031398944470861</v>
+        <v>0.1100139657864105</v>
       </c>
       <c r="C64">
-        <v>-0.009514790187483807</v>
+        <v>-0.01112230920553802</v>
       </c>
       <c r="D64">
-        <v>0.0140880558710875</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04406771271123907</v>
+      </c>
+      <c r="E64">
+        <v>-0.02209697469083263</v>
+      </c>
+      <c r="F64">
+        <v>-0.02604169903278543</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1291041709661983</v>
+        <v>0.1497078317320941</v>
       </c>
       <c r="C65">
-        <v>-0.02660143726267205</v>
+        <v>-0.03364957095332961</v>
       </c>
       <c r="D65">
-        <v>-0.01820550865200438</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04348630390727878</v>
+      </c>
+      <c r="E65">
+        <v>-0.005480665824865606</v>
+      </c>
+      <c r="F65">
+        <v>-0.04035739069195744</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1510736740771561</v>
+        <v>0.1236327113606062</v>
       </c>
       <c r="C66">
-        <v>-0.01357391511793466</v>
+        <v>-0.0131613351884301</v>
       </c>
       <c r="D66">
-        <v>0.1306204959072604</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.142986786418051</v>
+      </c>
+      <c r="E66">
+        <v>-0.06602112773386264</v>
+      </c>
+      <c r="F66">
+        <v>-0.03368482428930277</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>0.05664591204004001</v>
+        <v>0.05789749231765961</v>
       </c>
       <c r="C67">
-        <v>-0.002489953497384632</v>
+        <v>-0.002735931452965413</v>
       </c>
       <c r="D67">
-        <v>0.04077401372945166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05628155904335706</v>
+      </c>
+      <c r="E67">
+        <v>-0.01675997018503377</v>
+      </c>
+      <c r="F67">
+        <v>0.03157127772439864</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>0.109741458588294</v>
+        <v>0.1165640353863581</v>
       </c>
       <c r="C68">
-        <v>-0.01200762352267633</v>
+        <v>-0.03266606976903947</v>
       </c>
       <c r="D68">
-        <v>-0.2463641270188221</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2605839404019291</v>
+      </c>
+      <c r="E68">
+        <v>0.08707869420823755</v>
+      </c>
+      <c r="F68">
+        <v>-0.004609830709122824</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>0.03516187749918247</v>
+        <v>0.03944949924538853</v>
       </c>
       <c r="C69">
-        <v>0.0001247118483421731</v>
+        <v>-0.001204942213912826</v>
       </c>
       <c r="D69">
-        <v>0.001024864365400765</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.007953614597152315</v>
+      </c>
+      <c r="E69">
+        <v>-0.02367383529795694</v>
+      </c>
+      <c r="F69">
+        <v>-0.0005842788919373426</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>0.04889555316740801</v>
+        <v>0.06691796116365482</v>
       </c>
       <c r="C70">
-        <v>0.02533154762140539</v>
+        <v>0.02750340015531552</v>
       </c>
       <c r="D70">
-        <v>-0.04837079481824055</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02432133579308926</v>
+      </c>
+      <c r="E70">
+        <v>0.0341838306476451</v>
+      </c>
+      <c r="F70">
+        <v>0.182218391404329</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1224566875125911</v>
+        <v>0.1364788387520289</v>
       </c>
       <c r="C71">
-        <v>-0.0159539630617341</v>
+        <v>-0.03701957473531648</v>
       </c>
       <c r="D71">
-        <v>-0.2647016701616709</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2723280645360698</v>
+      </c>
+      <c r="E71">
+        <v>0.09767656768567588</v>
+      </c>
+      <c r="F71">
+        <v>-0.009902777372852795</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1343986788711449</v>
+        <v>0.1428028674668118</v>
       </c>
       <c r="C72">
-        <v>-0.0202074713965635</v>
+        <v>-0.02685943137645228</v>
       </c>
       <c r="D72">
-        <v>-0.008205466909287945</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.002584492965994356</v>
+      </c>
+      <c r="E72">
+        <v>-0.03681328578440792</v>
+      </c>
+      <c r="F72">
+        <v>-0.03166634892435628</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2036649508955069</v>
+        <v>0.2033349506503452</v>
       </c>
       <c r="C73">
-        <v>-0.001976773807426653</v>
+        <v>-0.01249622959050112</v>
       </c>
       <c r="D73">
-        <v>0.007518770636435535</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01831137780523636</v>
+      </c>
+      <c r="E73">
+        <v>-0.06356094081287474</v>
+      </c>
+      <c r="F73">
+        <v>-0.0380004975994541</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>0.09905836775959129</v>
+        <v>0.09486065522967284</v>
       </c>
       <c r="C74">
-        <v>-0.005837178539470246</v>
+        <v>-0.01330238698962315</v>
       </c>
       <c r="D74">
-        <v>0.02530452266873489</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01700282232583426</v>
+      </c>
+      <c r="E74">
+        <v>-0.04381942605224508</v>
+      </c>
+      <c r="F74">
+        <v>-0.05775037296022271</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>0.1349324448824702</v>
+        <v>0.1273413606115817</v>
       </c>
       <c r="C75">
-        <v>-0.02111249398981951</v>
+        <v>-0.02792566189004463</v>
       </c>
       <c r="D75">
-        <v>0.01778471991757817</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.03087963311399035</v>
+      </c>
+      <c r="E75">
+        <v>-0.05845921368090212</v>
+      </c>
+      <c r="F75">
+        <v>-0.02233669880793452</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>0.0714914469146594</v>
+        <v>0.08741962751668846</v>
       </c>
       <c r="C77">
-        <v>-0.01263737768323887</v>
+        <v>-0.007939124767833561</v>
       </c>
       <c r="D77">
-        <v>0.09818309056482223</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1114292685049457</v>
+      </c>
+      <c r="E77">
+        <v>-0.03781040864271713</v>
+      </c>
+      <c r="F77">
+        <v>-0.03629017118437049</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1006078957681896</v>
+        <v>0.09984701108009394</v>
       </c>
       <c r="C78">
-        <v>-0.04117821365654999</v>
+        <v>-0.03913729070909994</v>
       </c>
       <c r="D78">
-        <v>0.08813035359632171</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1136756663522029</v>
+      </c>
+      <c r="E78">
+        <v>-0.07409989246078841</v>
+      </c>
+      <c r="F78">
+        <v>-0.04742672370258477</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1640934792793068</v>
+        <v>0.1640259657127351</v>
       </c>
       <c r="C79">
-        <v>-0.01403658391622058</v>
+        <v>-0.02271785872275352</v>
       </c>
       <c r="D79">
-        <v>-0.001597441110299269</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01430782268041317</v>
+      </c>
+      <c r="E79">
+        <v>-0.04606905450438576</v>
+      </c>
+      <c r="F79">
+        <v>-0.01189388617867694</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>0.08968872755861436</v>
+        <v>0.08244883773581542</v>
       </c>
       <c r="C80">
-        <v>0.00228621499258064</v>
+        <v>0.001099347464238706</v>
       </c>
       <c r="D80">
-        <v>0.05029890977858367</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05617379821127633</v>
+      </c>
+      <c r="E80">
+        <v>-0.0360864006867367</v>
+      </c>
+      <c r="F80">
+        <v>0.02279781763291667</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1204195331816499</v>
+        <v>0.1197053944320336</v>
       </c>
       <c r="C81">
-        <v>-0.02458911990617262</v>
+        <v>-0.03184238018400098</v>
       </c>
       <c r="D81">
-        <v>0.03593178532428604</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01538244320674457</v>
+      </c>
+      <c r="E81">
+        <v>-0.05739695105225624</v>
+      </c>
+      <c r="F81">
+        <v>-0.01792227351422462</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1700087135834047</v>
+        <v>0.1659042312575701</v>
       </c>
       <c r="C82">
-        <v>-0.01392769458917532</v>
+        <v>-0.02478713558997827</v>
       </c>
       <c r="D82">
-        <v>0.02300270685862851</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.003983301278652457</v>
+      </c>
+      <c r="E82">
+        <v>-0.02636965901948185</v>
+      </c>
+      <c r="F82">
+        <v>-0.0817097238344895</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>0.06663420622642183</v>
+        <v>0.05870395450880244</v>
       </c>
       <c r="C83">
-        <v>-0.003574743691264994</v>
+        <v>-0.002578188460318096</v>
       </c>
       <c r="D83">
-        <v>0.03433949612636067</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05095520910316235</v>
+      </c>
+      <c r="E83">
+        <v>-0.003019832171424814</v>
+      </c>
+      <c r="F83">
+        <v>0.03057762058384186</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0689061439223409</v>
+        <v>0.05907588808286186</v>
       </c>
       <c r="C84">
-        <v>-0.0114290857238208</v>
+        <v>-0.01094571542787656</v>
       </c>
       <c r="D84">
-        <v>0.05131240157926216</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.06364324918194936</v>
+      </c>
+      <c r="E84">
+        <v>-0.007206139059785754</v>
+      </c>
+      <c r="F84">
+        <v>-0.005512728098170393</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1345682631648097</v>
+        <v>0.1353896370294795</v>
       </c>
       <c r="C85">
-        <v>-0.02130081924826695</v>
+        <v>-0.02791897055029975</v>
       </c>
       <c r="D85">
-        <v>0.01280744784607562</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009856517188278312</v>
+      </c>
+      <c r="E85">
+        <v>-0.03635907807449094</v>
+      </c>
+      <c r="F85">
+        <v>-0.04796227710550661</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>0.07066568991946559</v>
+        <v>0.0941379028618205</v>
       </c>
       <c r="C86">
-        <v>0.0005645989395752603</v>
+        <v>0.005640237373633936</v>
       </c>
       <c r="D86">
-        <v>-0.06382556707654992</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.04021607194499092</v>
+      </c>
+      <c r="E86">
+        <v>-0.2272651645715967</v>
+      </c>
+      <c r="F86">
+        <v>0.9050277688602592</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1167137368559201</v>
+        <v>0.09428536176671118</v>
       </c>
       <c r="C87">
-        <v>-0.02101960204634758</v>
+        <v>-0.01900550418281888</v>
       </c>
       <c r="D87">
-        <v>0.06936624713848256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09421762360098197</v>
+      </c>
+      <c r="E87">
+        <v>0.05326352175718486</v>
+      </c>
+      <c r="F87">
+        <v>-0.04706102033919697</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>0.05718325706856685</v>
+        <v>0.06084341055610946</v>
       </c>
       <c r="C88">
-        <v>-0.003403847897095349</v>
+        <v>-0.002170187357607353</v>
       </c>
       <c r="D88">
-        <v>0.02799317940740703</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04963480631034677</v>
+      </c>
+      <c r="E88">
+        <v>-0.02407239332766836</v>
+      </c>
+      <c r="F88">
+        <v>-0.01394822525057007</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>0.1215036222900869</v>
+        <v>0.1308071168541049</v>
       </c>
       <c r="C89">
-        <v>0.005680510910163834</v>
+        <v>-0.01360453760564425</v>
       </c>
       <c r="D89">
-        <v>-0.2724289810046931</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2469279371238521</v>
+      </c>
+      <c r="E89">
+        <v>0.08927582849524308</v>
+      </c>
+      <c r="F89">
+        <v>0.0084644778815987</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1269936621525232</v>
+        <v>0.1513533271164457</v>
       </c>
       <c r="C90">
-        <v>-0.01315569308421077</v>
+        <v>-0.03374055754926698</v>
       </c>
       <c r="D90">
-        <v>-0.2646834053943434</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2703262222878747</v>
+      </c>
+      <c r="E90">
+        <v>0.1130960026733052</v>
+      </c>
+      <c r="F90">
+        <v>0.00738260904807479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>0.1160280633798426</v>
+        <v>0.1208209158458254</v>
       </c>
       <c r="C91">
-        <v>-0.01090592645421274</v>
+        <v>-0.01955855121668163</v>
       </c>
       <c r="D91">
-        <v>-0.01383379071665795</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01451953106031908</v>
+      </c>
+      <c r="E91">
+        <v>-0.05561430915800083</v>
+      </c>
+      <c r="F91">
+        <v>0.0009153310952844098</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1435037985754133</v>
+        <v>0.1485854975366178</v>
       </c>
       <c r="C92">
-        <v>-0.0007960607121856291</v>
+        <v>-0.02464609549564432</v>
       </c>
       <c r="D92">
-        <v>-0.2950797762376058</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2914480888986225</v>
+      </c>
+      <c r="E92">
+        <v>0.1017460328243198</v>
+      </c>
+      <c r="F92">
+        <v>0.01272657582453593</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1287515736650317</v>
+        <v>0.152251438755637</v>
       </c>
       <c r="C93">
-        <v>-0.008877587765152862</v>
+        <v>-0.02894972335343056</v>
       </c>
       <c r="D93">
-        <v>-0.2595075211963085</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2666435267314732</v>
+      </c>
+      <c r="E93">
+        <v>0.07902184892687776</v>
+      </c>
+      <c r="F93">
+        <v>-0.003723522660410301</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1356271739553751</v>
+        <v>0.1282089107260362</v>
       </c>
       <c r="C94">
-        <v>-0.01740975277675356</v>
+        <v>-0.02431523398819354</v>
       </c>
       <c r="D94">
-        <v>0.03979196762704784</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04210423209961667</v>
+      </c>
+      <c r="E94">
+        <v>-0.05736509165540656</v>
+      </c>
+      <c r="F94">
+        <v>-0.03622299224088203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1190099983267425</v>
+        <v>0.1266601692096893</v>
       </c>
       <c r="C95">
-        <v>-0.005787302812314383</v>
+        <v>-0.002917309166072338</v>
       </c>
       <c r="D95">
-        <v>0.06797983840432299</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09486513145086084</v>
+      </c>
+      <c r="E95">
+        <v>-0.04921195248060425</v>
+      </c>
+      <c r="F95">
+        <v>0.005085173724927681</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.0573113875328778</v>
+        <v>0.107581461019882</v>
       </c>
       <c r="C96">
-        <v>0.9928692929126528</v>
+        <v>0.9872656986668084</v>
       </c>
       <c r="D96">
-        <v>-0.006048583456438403</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05164208767808177</v>
+      </c>
+      <c r="E96">
+        <v>-0.05339285203114168</v>
+      </c>
+      <c r="F96">
+        <v>-0.04240835468487905</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1971028058876752</v>
+        <v>0.1925384275349135</v>
       </c>
       <c r="C97">
-        <v>0.01845260915579857</v>
+        <v>0.006877459048209237</v>
       </c>
       <c r="D97">
-        <v>-0.04641816241928261</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.01847025065044692</v>
+      </c>
+      <c r="E97">
+        <v>-0.02189516797517933</v>
+      </c>
+      <c r="F97">
+        <v>0.09631590250828199</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>0.1998658631828521</v>
+        <v>0.2061421158612488</v>
       </c>
       <c r="C98">
-        <v>0.001388533878552028</v>
+        <v>-0.006863967790111173</v>
       </c>
       <c r="D98">
-        <v>-0.01041486814532106</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01292163282446128</v>
+      </c>
+      <c r="E98">
+        <v>0.07853290914512519</v>
+      </c>
+      <c r="F98">
+        <v>0.09363389436523654</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>0.05341517730840568</v>
+        <v>0.05428456135071229</v>
       </c>
       <c r="C99">
-        <v>0.005196629180273007</v>
+        <v>0.004756906793144208</v>
       </c>
       <c r="D99">
-        <v>0.02571308676783786</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.04015663279001518</v>
+      </c>
+      <c r="E99">
+        <v>-0.02248163217582708</v>
+      </c>
+      <c r="F99">
+        <v>-0.002407500023302013</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>0.1442753586985365</v>
+        <v>0.126848549413952</v>
       </c>
       <c r="C100">
-        <v>0.04088206579525185</v>
+        <v>0.05414722423987653</v>
       </c>
       <c r="D100">
-        <v>0.4802264662540544</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3471537829827013</v>
+      </c>
+      <c r="E100">
+        <v>0.8858609666222094</v>
+      </c>
+      <c r="F100">
+        <v>0.1567416718105381</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>0.02406829070728625</v>
+        <v>0.0283886269704048</v>
       </c>
       <c r="C101">
-        <v>-0.009124598916499003</v>
+        <v>-0.008644167609178351</v>
       </c>
       <c r="D101">
-        <v>0.01828102177397999</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.03055443986423044</v>
+      </c>
+      <c r="E101">
+        <v>-0.0131569609956462</v>
+      </c>
+      <c r="F101">
+        <v>0.01459941860323474</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
